--- a/Dokumentáció/Csoport2 ütemterv.xlsx
+++ b/Dokumentáció/Csoport2 ütemterv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59D4885D-BBFF-4534-A5A7-98157A6D1F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB355BF-30FB-465B-86A1-0E5A1B232B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Projekttervező</t>
   </si>
@@ -53,84 +53,6 @@
   </si>
   <si>
     <t>TEVÉKENYSÉG</t>
-  </si>
-  <si>
-    <t>Tevékenység 01</t>
-  </si>
-  <si>
-    <t>Tevékenység 02</t>
-  </si>
-  <si>
-    <t>Tevékenység 03</t>
-  </si>
-  <si>
-    <t>Tevékenység 04</t>
-  </si>
-  <si>
-    <t>Tevékenység 05</t>
-  </si>
-  <si>
-    <t>Tevékenység 06</t>
-  </si>
-  <si>
-    <t>Tevékenység 07</t>
-  </si>
-  <si>
-    <t>Tevékenység 08</t>
-  </si>
-  <si>
-    <t>Tevékenység 09</t>
-  </si>
-  <si>
-    <t>Tevékenység 10</t>
-  </si>
-  <si>
-    <t>Tevékenység 11</t>
-  </si>
-  <si>
-    <t>Tevékenység 12</t>
-  </si>
-  <si>
-    <t>Tevékenység 13</t>
-  </si>
-  <si>
-    <t>Tevékenység 14</t>
-  </si>
-  <si>
-    <t>Tevékenység 15</t>
-  </si>
-  <si>
-    <t>Tevékenység 16</t>
-  </si>
-  <si>
-    <t>Tevékenység 17</t>
-  </si>
-  <si>
-    <t>Tevékenység 18</t>
-  </si>
-  <si>
-    <t>Tevékenység 19</t>
-  </si>
-  <si>
-    <t>Tevékenység 20</t>
-  </si>
-  <si>
-    <t>Tevékenység 21</t>
-  </si>
-  <si>
-    <t>Tevékenység 22</t>
-  </si>
-  <si>
-    <t>Tevékenység 23</t>
-  </si>
-  <si>
-    <t>Tevékenység 24</t>
-  </si>
-  <si>
-    <t>Tevékenység 25</t>
-  </si>
-  <si>
-    <t>Tevékenység 26</t>
   </si>
   <si>
     <t>TERV KEZDETE</t>
@@ -239,6 +161,33 @@
       </rPr>
       <t>kész (a terven felül)</t>
     </r>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Specifikáció</t>
+  </si>
+  <si>
+    <t>Dokumentáció</t>
+  </si>
+  <si>
+    <t>Tiszta program</t>
+  </si>
+  <si>
+    <t>Adatbázis</t>
+  </si>
+  <si>
+    <t>Responzivitás</t>
+  </si>
+  <si>
+    <t>Szoftver tesztelés</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1007,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1093,14 +1042,14 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="5" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="H2" s="15">
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="31" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -1108,20 +1057,20 @@
       <c r="O2" s="33"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="31" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="R2" s="34"/>
       <c r="S2" s="34"/>
       <c r="T2" s="33"/>
       <c r="V2" s="18"/>
       <c r="W2" s="36" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="X2" s="37"/>
       <c r="Y2" s="23"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="24" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="AB2" s="25"/>
       <c r="AC2" s="25"/>
@@ -1131,7 +1080,7 @@
       <c r="AG2" s="35"/>
       <c r="AH2" s="20"/>
       <c r="AI2" s="24" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AJ2" s="25"/>
       <c r="AK2" s="25"/>
@@ -1146,22 +1095,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -1373,7 +1322,7 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1393,7 +1342,7 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1413,7 +1362,7 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1433,7 +1382,7 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1453,7 +1402,7 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1473,7 +1422,7 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1493,7 +1442,7 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1513,7 +1462,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1533,7 +1482,7 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1552,9 +1501,7 @@
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="7">
         <v>0</v>
       </c>
@@ -1572,9 +1519,7 @@
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="9">
         <v>0</v>
       </c>
@@ -1592,9 +1537,7 @@
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="7">
         <v>0</v>
       </c>
@@ -1612,9 +1555,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="7">
         <v>0</v>
       </c>
@@ -1632,9 +1573,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="7">
         <v>0</v>
       </c>
@@ -1652,9 +1591,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="7">
         <v>0</v>
       </c>
@@ -1672,9 +1609,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="7">
         <v>0</v>
       </c>
@@ -1692,9 +1627,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="7">
         <v>0</v>
       </c>
@@ -1712,9 +1645,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="7">
         <v>0</v>
       </c>
@@ -1732,9 +1663,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="7">
         <v>0</v>
       </c>
@@ -1752,9 +1681,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="7">
         <v>0</v>
       </c>
@@ -1772,9 +1699,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="7">
         <v>0</v>
       </c>
@@ -1792,9 +1717,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="7">
         <v>0</v>
       </c>
@@ -1812,9 +1735,7 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B27" s="6"/>
       <c r="C27" s="7">
         <v>0</v>
       </c>
@@ -1832,9 +1753,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B28" s="6"/>
       <c r="C28" s="7">
         <v>0</v>
       </c>
@@ -1852,9 +1771,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B29" s="6"/>
       <c r="C29" s="7">
         <v>0</v>
       </c>
@@ -1872,9 +1789,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="7">
         <v>0</v>
       </c>
